--- a/Program/Other/Sharepoint上傳用/測試FT/L7/L7904 L7204/FT_L7904 L7204.xlsx
+++ b/Program/Other/Sharepoint上傳用/測試FT/L7/L7904 L7204/FT_L7904 L7204.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\測試FT\L7\L7904 L7204\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDCFAAA-EA73-4BE9-A26D-404943F4C1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04081C3C-2407-422B-9498-0DB7C802C3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="101">
   <si>
     <t>目錄名稱</t>
   </si>
@@ -362,14 +362,6 @@
   </si>
   <si>
     <t>1.自動顯示原值，可以修改日期2.限輸入日期，檢核條件：(1).不可為空白/V(7)(2).日期格式/A(DATE,0)3.檢核：若[終止日期] &lt; [起始日期]，顯示錯誤訊息 "終止日期不可小於起始日期"/V(P)4.Ias39Loss.EndDate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.自動顯示原值，可以修改數字，檢核條件：需介於1至99/V(5,1,99)2.Ias39Loss.LosCod</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.限輸入數字，檢核條件：需介於1至99/V(5,1,99)2.Ias39Loss.LosCod</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -383,6 +375,21 @@
     <t>1.限輸入日期，檢核條件：(1).不可為空白/V(7)(2).日期格式/A(DATE,0)2.Ias39Loss.MarkDate
 [檢核](1).依據[戶號(CustNo)]、[額度編號(FacmNo)]檢核是否存在於[額度主檔(FacMain)]中，若不存在則顯示錯誤訊息 "E0001查詢資料不存在(額度主檔)"
 (2).依據[戶號(CustNo)]、[額度編號(FacmNo)]、[發生日期(MarkDate)]檢核是否存在於[特殊客觀減損狀況檔(Ias39Loss)]中，若存在則顯示錯誤訊息 "E0002新增資料已存在(特殊客觀減損狀況檔)"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.限輸入代碼，檢核條件：依選單/V(H)2.Ias39Loss.LosCod</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示原值，限輸入代碼，檢核條件：依選單/V(H)2.Ias39Loss.LosCod</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>製作依據之需求規格書與版本：PJ201800012_URS_7介接外部系統_V1.93.docx</t>
+  </si>
+  <si>
+    <t>製作依據之需求規格書與版本：PJ201800012_URS_7介接外部系統_V1.93.docx</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1578,7 +1585,7 @@
         <v>33</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
@@ -1586,7 +1593,7 @@
         <v>30</v>
       </c>
       <c r="Q12" s="28">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1606,7 +1613,7 @@
         <v>72</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="16" t="s">
@@ -1625,7 +1632,7 @@
         <v>33</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
@@ -1633,7 +1640,7 @@
         <v>30</v>
       </c>
       <c r="Q13" s="31">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1672,7 +1679,7 @@
         <v>33</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
@@ -1680,7 +1687,7 @@
         <v>30</v>
       </c>
       <c r="Q14" s="31">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="129.6" x14ac:dyDescent="0.2">
@@ -1700,7 +1707,7 @@
         <v>74</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="16" t="s">
@@ -1719,7 +1726,7 @@
         <v>33</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
@@ -1727,7 +1734,7 @@
         <v>30</v>
       </c>
       <c r="Q15" s="31">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1766,7 +1773,7 @@
         <v>33</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
@@ -1774,7 +1781,7 @@
         <v>30</v>
       </c>
       <c r="Q16" s="31">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1813,7 +1820,7 @@
         <v>33</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
@@ -1821,7 +1828,7 @@
         <v>30</v>
       </c>
       <c r="Q17" s="31">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="8" customFormat="1" ht="81" x14ac:dyDescent="0.2">
@@ -1859,7 +1866,7 @@
         <v>33</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
@@ -1867,7 +1874,7 @@
         <v>30</v>
       </c>
       <c r="Q18" s="31">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="8" customFormat="1" ht="81" x14ac:dyDescent="0.2">
@@ -1905,7 +1912,7 @@
         <v>33</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
@@ -1913,7 +1920,7 @@
         <v>30</v>
       </c>
       <c r="Q19" s="31">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="8" customFormat="1" ht="81" x14ac:dyDescent="0.2">
@@ -1951,7 +1958,7 @@
         <v>33</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
@@ -1959,7 +1966,7 @@
         <v>30</v>
       </c>
       <c r="Q20" s="31">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1979,7 +1986,7 @@
         <v>82</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="16" t="s">
@@ -1998,7 +2005,7 @@
         <v>33</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
@@ -2006,7 +2013,7 @@
         <v>30</v>
       </c>
       <c r="Q21" s="30">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2047,7 +2054,7 @@
         <v>33</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
@@ -2055,7 +2062,7 @@
         <v>30</v>
       </c>
       <c r="Q22" s="31">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2096,7 +2103,7 @@
         <v>33</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
@@ -2104,7 +2111,7 @@
         <v>30</v>
       </c>
       <c r="Q23" s="31">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2145,7 +2152,7 @@
         <v>33</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
@@ -2153,7 +2160,7 @@
         <v>30</v>
       </c>
       <c r="Q24" s="31">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="8" customFormat="1" ht="81" x14ac:dyDescent="0.2">
@@ -2194,7 +2201,7 @@
         <v>33</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
@@ -2202,7 +2209,7 @@
         <v>30</v>
       </c>
       <c r="Q25" s="31">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="8" customFormat="1" ht="81" x14ac:dyDescent="0.2">
@@ -2240,7 +2247,7 @@
         <v>33</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
@@ -2248,7 +2255,7 @@
         <v>30</v>
       </c>
       <c r="Q26" s="31">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="27" spans="1:17" s="8" customFormat="1" ht="81" x14ac:dyDescent="0.2">
@@ -2286,7 +2293,7 @@
         <v>33</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
@@ -2294,7 +2301,7 @@
         <v>30</v>
       </c>
       <c r="Q27" s="31">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="8" customFormat="1" ht="81" x14ac:dyDescent="0.2">
@@ -2332,7 +2339,7 @@
         <v>33</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
@@ -2340,7 +2347,7 @@
         <v>30</v>
       </c>
       <c r="Q28" s="31">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="8" customFormat="1" ht="81" x14ac:dyDescent="0.2">
@@ -2378,7 +2385,7 @@
         <v>33</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
@@ -2386,7 +2393,7 @@
         <v>30</v>
       </c>
       <c r="Q29" s="31">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2425,7 +2432,7 @@
         <v>33</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="N30" s="19"/>
       <c r="O30" s="19"/>
@@ -2433,7 +2440,7 @@
         <v>30</v>
       </c>
       <c r="Q30" s="31">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2453,7 +2460,7 @@
         <v>82</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="17" t="s">
@@ -2472,7 +2479,7 @@
         <v>33</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
@@ -2480,7 +2487,7 @@
         <v>30</v>
       </c>
       <c r="Q31" s="30">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
   </sheetData>
